--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$139</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5545" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5386" uniqueCount="643">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1191,55 +1191,55 @@
 value:system}</t>
   </si>
   <si>
-    <t>Observation.code.coding:bodyHeightCode</t>
-  </si>
-  <si>
-    <t>bodyHeightCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:bodyHeightCode.id</t>
+    <t>Observation.code.coding:dateOfVisitCode</t>
+  </si>
+  <si>
+    <t>dateOfVisitCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:dateOfVisitCode.id</t>
   </si>
   <si>
     <t>Observation.code.coding.id</t>
   </si>
   <si>
-    <t>Observation.code.coding:bodyHeightCode.extension</t>
+    <t>Observation.code.coding:dateOfVisitCode.extension</t>
   </si>
   <si>
     <t>Observation.code.coding.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding:bodyHeightCode.system</t>
+    <t>Observation.code.coding:dateOfVisitCode.system</t>
   </si>
   <si>
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:bodyHeightCode.version</t>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:dateOfVisitCode.version</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t>Observation.code.coding:bodyHeightCode.code</t>
+    <t>Observation.code.coding:dateOfVisitCode.code</t>
   </si>
   <si>
     <t>Observation.code.coding.code</t>
   </si>
   <si>
-    <t>2000-8</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:bodyHeightCode.display</t>
+    <t>406543005</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:dateOfVisitCode.display</t>
   </si>
   <si>
     <t>Observation.code.coding.display</t>
   </si>
   <si>
-    <t>Observation.code.coding:bodyHeightCode.userSelected</t>
+    <t>Observation.code.coding:dateOfVisitCode.userSelected</t>
   </si>
   <si>
     <t>Observation.code.coding.userSelected</t>
@@ -1460,172 +1460,38 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
+    <t>Observation.value[x]:valueDateTime</t>
+  </si>
+  <si>
+    <t>valueDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.id</t>
+    <t>Observation.value[x]:valueDateTime.id</t>
   </si>
   <si>
     <t>Observation.value[x].id</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.extension</t>
+    <t>Observation.value[x]:valueDateTime.extension</t>
   </si>
   <si>
     <t>Observation.value[x].extension</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.value</t>
+    <t>Observation.value[x]:valueDateTime.value</t>
   </si>
   <si>
     <t>Observation.value[x].value</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.comparator</t>
-  </si>
-  <si>
-    <t>Observation.value[x].comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.system</t>
-  </si>
-  <si>
-    <t>Observation.value[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t>ele-1
-qty-3</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.code</t>
-  </si>
-  <si>
-    <t>Observation.value[x].code</t>
-  </si>
-  <si>
-    <t>Coded responses from the common UCUM units for length.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>cm | m</t>
-  </si>
-  <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-mass-concentration-units</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
+    <t>Primitive value for dateTime</t>
+  </si>
+  <si>
+    <t>dateTime.value</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2466,7 +2332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP143"/>
+  <dimension ref="A1:AP139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2500,7 +2366,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.2421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
@@ -15851,23 +15717,19 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L111" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="M111" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15915,7 +15777,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15924,10 +15786,10 @@
         <v>92</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -15936,10 +15798,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>483</v>
+        <v>82</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15950,10 +15812,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15970,85 +15832,83 @@
         <v>82</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="P112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI112" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="P112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q112" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>105</v>
@@ -16060,10 +15920,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>493</v>
+        <v>106</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16074,45 +15934,45 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>259</v>
+        <v>492</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16137,13 +15997,13 @@
         <v>82</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>82</v>
+        <v>494</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>82</v>
+        <v>495</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16161,13 +16021,13 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>104</v>
@@ -16179,27 +16039,27 @@
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16207,41 +16067,41 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>108</v>
+        <v>501</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O114" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>509</v>
+        <v>82</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>82</v>
@@ -16283,16 +16143,16 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>511</v>
+        <v>104</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>105</v>
@@ -16304,10 +16164,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16318,10 +16178,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16329,35 +16189,33 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16381,13 +16239,13 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -16405,7 +16263,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16423,27 +16281,27 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>82</v>
+        <v>514</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16469,16 +16327,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16503,13 +16361,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>527</v>
+        <v>368</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16527,7 +16385,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16536,7 +16394,7 @@
         <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>530</v>
+        <v>104</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -16548,10 +16406,10 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>106</v>
+        <v>525</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16562,21 +16420,21 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>533</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16588,20 +16446,18 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>198</v>
+        <v>528</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16625,69 +16481,69 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF117" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Y117" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16698,7 +16554,7 @@
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
@@ -16710,20 +16566,18 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16771,45 +16625,45 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>82</v>
+        <v>541</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16820,7 +16674,7 @@
         <v>80</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>82</v>
@@ -16832,18 +16686,20 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>198</v>
+        <v>546</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="O119" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16867,13 +16723,13 @@
         <v>82</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>556</v>
+        <v>82</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16891,45 +16747,45 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>105</v>
+        <v>551</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>558</v>
+        <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>561</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16952,20 +16808,16 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>563</v>
+        <v>216</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>82</v>
       </c>
@@ -16989,13 +16841,13 @@
         <v>82</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>567</v>
+        <v>82</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>82</v>
@@ -17013,7 +16865,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>562</v>
+        <v>218</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17022,10 +16874,10 @@
         <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
@@ -17034,10 +16886,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>569</v>
+        <v>82</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>570</v>
+        <v>113</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -17048,21 +16900,21 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>82</v>
@@ -17074,16 +16926,16 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>572</v>
+        <v>140</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>573</v>
+        <v>141</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>574</v>
+        <v>221</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>575</v>
+        <v>143</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17121,91 +16973,93 @@
         <v>82</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC121" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>571</v>
+        <v>222</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>576</v>
+        <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>578</v>
+        <v>106</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>579</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>82</v>
+        <v>557</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>581</v>
+        <v>140</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O122" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
       </c>
@@ -17253,45 +17107,45 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>585</v>
+        <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>586</v>
+        <v>82</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>587</v>
+        <v>106</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>588</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17302,7 +17156,7 @@
         <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>82</v>
@@ -17314,20 +17168,18 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>591</v>
+        <v>563</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>82</v>
       </c>
@@ -17375,19 +17227,19 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>104</v>
+        <v>566</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17396,10 +17248,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17410,10 +17262,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17436,15 +17288,17 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>215</v>
+        <v>562</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>216</v>
+        <v>571</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -17493,7 +17347,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>218</v>
+        <v>570</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17502,10 +17356,10 @@
         <v>92</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>82</v>
+        <v>567</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>82</v>
@@ -17514,10 +17368,10 @@
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>82</v>
+        <v>568</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>113</v>
+        <v>573</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17528,21 +17382,21 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>82</v>
@@ -17554,18 +17408,20 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>141</v>
+        <v>575</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>221</v>
+        <v>576</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O125" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
@@ -17589,55 +17445,55 @@
         <v>82</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>82</v>
+        <v>579</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>82</v>
+        <v>580</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>222</v>
+        <v>574</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>82</v>
+        <v>581</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17648,14 +17504,14 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>601</v>
+        <v>82</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -17668,25 +17524,25 @@
         <v>82</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>143</v>
+        <v>586</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>152</v>
+        <v>587</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17711,13 +17567,13 @@
         <v>82</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>82</v>
+        <v>588</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>82</v>
+        <v>589</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
@@ -17735,7 +17591,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17747,19 +17603,19 @@
         <v>104</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>82</v>
+        <v>581</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17770,10 +17626,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17796,18 +17652,20 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="O127" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
       </c>
@@ -17855,7 +17713,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17864,10 +17722,10 @@
         <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>610</v>
+        <v>104</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -17876,10 +17734,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17890,10 +17748,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17916,16 +17774,16 @@
         <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>606</v>
+        <v>215</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>609</v>
+        <v>259</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17975,7 +17833,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17984,10 +17842,10 @@
         <v>92</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>610</v>
+        <v>104</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>611</v>
+        <v>105</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>82</v>
@@ -17996,10 +17854,10 @@
         <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>612</v>
+        <v>568</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -18010,10 +17868,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18024,7 +17882,7 @@
         <v>80</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>82</v>
@@ -18033,23 +17891,21 @@
         <v>82</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>198</v>
+        <v>604</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>622</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>82</v>
       </c>
@@ -18073,13 +17929,13 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>623</v>
+        <v>82</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>624</v>
+        <v>82</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18097,31 +17953,31 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>625</v>
+        <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -18132,10 +17988,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18155,23 +18011,21 @@
         <v>82</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>198</v>
+        <v>611</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>631</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>82</v>
       </c>
@@ -18195,13 +18049,13 @@
         <v>82</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>632</v>
+        <v>82</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>633</v>
+        <v>82</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>82</v>
@@ -18219,7 +18073,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18231,19 +18085,19 @@
         <v>104</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>625</v>
+        <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>542</v>
+        <v>615</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18254,10 +18108,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18268,7 +18122,7 @@
         <v>80</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>82</v>
@@ -18277,22 +18131,22 @@
         <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>635</v>
+        <v>546</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18341,19 +18195,19 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>640</v>
+        <v>105</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>82</v>
@@ -18362,10 +18216,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18376,10 +18230,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18405,14 +18259,12 @@
         <v>215</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>644</v>
+        <v>216</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18461,7 +18313,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>643</v>
+        <v>218</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18470,10 +18322,10 @@
         <v>92</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
@@ -18482,10 +18334,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>612</v>
+        <v>82</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>646</v>
+        <v>113</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18496,14 +18348,14 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -18519,19 +18371,19 @@
         <v>82</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>648</v>
+        <v>140</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>649</v>
+        <v>141</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>650</v>
+        <v>221</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>651</v>
+        <v>143</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18569,19 +18421,19 @@
         <v>82</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC133" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>647</v>
+        <v>222</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18593,7 +18445,7 @@
         <v>104</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>82</v>
@@ -18602,10 +18454,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>652</v>
+        <v>82</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>653</v>
+        <v>106</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18616,14 +18468,14 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>82</v>
+        <v>557</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -18636,24 +18488,26 @@
         <v>82</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>655</v>
+        <v>140</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>656</v>
+        <v>558</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>657</v>
+        <v>559</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="O134" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18701,7 +18555,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>654</v>
+        <v>560</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18713,7 +18567,7 @@
         <v>104</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>82</v>
@@ -18722,10 +18576,10 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>652</v>
+        <v>82</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>659</v>
+        <v>106</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18736,10 +18590,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>660</v>
+        <v>626</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>660</v>
+        <v>626</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18747,10 +18601,10 @@
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>82</v>
@@ -18762,19 +18616,19 @@
         <v>93</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>590</v>
+        <v>198</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>661</v>
+        <v>627</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>662</v>
+        <v>628</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>663</v>
+        <v>629</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>664</v>
+        <v>367</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18799,13 +18653,13 @@
         <v>82</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>82</v>
@@ -18823,13 +18677,13 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>660</v>
+        <v>626</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>104</v>
@@ -18841,16 +18695,16 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>82</v>
+        <v>630</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>665</v>
+        <v>373</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>666</v>
+        <v>374</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -18858,10 +18712,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18881,19 +18735,23 @@
         <v>82</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>215</v>
+        <v>456</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>216</v>
+        <v>632</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
       </c>
@@ -18941,7 +18799,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>218</v>
+        <v>631</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18950,47 +18808,47 @@
         <v>92</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>82</v>
+        <v>634</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>113</v>
+        <v>465</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP136" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>82</v>
@@ -19002,18 +18860,20 @@
         <v>82</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>141</v>
+        <v>636</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>221</v>
+        <v>637</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O137" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
       </c>
@@ -19037,43 +18897,43 @@
         <v>82</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>82</v>
+        <v>485</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>222</v>
+        <v>635</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>104</v>
+        <v>486</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>82</v>
@@ -19082,10 +18942,10 @@
         <v>82</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>106</v>
+        <v>487</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>82</v>
@@ -19096,14 +18956,14 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>601</v>
+        <v>489</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -19116,25 +18976,25 @@
         <v>82</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>602</v>
+        <v>490</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>603</v>
+        <v>491</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>143</v>
+        <v>492</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>152</v>
+        <v>493</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19159,13 +19019,13 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>82</v>
+        <v>494</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>82</v>
+        <v>495</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19183,7 +19043,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>604</v>
+        <v>639</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19195,33 +19055,33 @@
         <v>104</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP138" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19229,10 +19089,10 @@
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>82</v>
@@ -19241,22 +19101,22 @@
         <v>82</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>671</v>
+        <v>641</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>673</v>
+        <v>549</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>367</v>
+        <v>550</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19281,13 +19141,13 @@
         <v>82</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19305,529 +19165,41 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>674</v>
+        <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>373</v>
+        <v>552</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>374</v>
+        <v>553</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="140" hidden="true">
-      <c r="A140" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="P140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q140" s="2"/>
-      <c r="R140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AO140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP140" t="s" s="2">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="141" hidden="true">
-      <c r="A141" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q141" s="2"/>
-      <c r="R141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AO141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP141" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="142" hidden="true">
-      <c r="A142" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="P142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q142" s="2"/>
-      <c r="R142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AO142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP142" t="s" s="2">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="143" hidden="true">
-      <c r="A143" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="P143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q143" s="2"/>
-      <c r="R143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AO143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP143" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP143">
+  <autoFilter ref="A1:AP139">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19837,7 +19209,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI142">
+  <conditionalFormatting sqref="A2:AI138">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$138</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5386" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5347" uniqueCount="634">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1187,65 +1187,37 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>value:code}
-value:system}</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:dateOfVisitCode</t>
-  </si>
-  <si>
-    <t>dateOfVisitCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:dateOfVisitCode.id</t>
-  </si>
-  <si>
     <t>Observation.code.coding.id</t>
   </si>
   <si>
-    <t>Observation.code.coding:dateOfVisitCode.extension</t>
-  </si>
-  <si>
     <t>Observation.code.coding.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding:dateOfVisitCode.system</t>
-  </si>
-  <si>
     <t>Observation.code.coding.system</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>Observation.code.coding:dateOfVisitCode.version</t>
-  </si>
-  <si>
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t>Observation.code.coding:dateOfVisitCode.code</t>
-  </si>
-  <si>
     <t>Observation.code.coding.code</t>
   </si>
   <si>
     <t>406543005</t>
   </si>
   <si>
-    <t>Observation.code.coding:dateOfVisitCode.display</t>
-  </si>
-  <si>
     <t>Observation.code.coding.display</t>
   </si>
   <si>
-    <t>Observation.code.coding:dateOfVisitCode.userSelected</t>
-  </si>
-  <si>
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Date of visit</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -2332,7 +2304,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP139"/>
+  <dimension ref="A1:AP138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12929,7 +12901,7 @@
         <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
@@ -13011,7 +12983,7 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>371</v>
@@ -13289,7 +13261,7 @@
         <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
@@ -13347,14 +13319,16 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AC91" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>230</v>
@@ -13392,48 +13366,42 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13481,19 +13449,19 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13502,10 +13470,10 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13516,21 +13484,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13542,15 +13510,17 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13587,31 +13557,31 @@
         <v>82</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
@@ -13623,7 +13593,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13634,21 +13604,21 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13657,27 +13627,29 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13707,31 +13679,31 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
@@ -13740,10 +13712,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13754,10 +13726,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13765,7 +13737,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>92</v>
@@ -13780,26 +13752,24 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>82</v>
@@ -13841,7 +13811,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13862,10 +13832,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13876,10 +13846,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13887,7 +13857,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>92</v>
@@ -13902,24 +13872,26 @@
         <v>93</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -13961,7 +13933,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13982,10 +13954,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13996,10 +13968,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14007,7 +13979,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>92</v>
@@ -14022,26 +13994,26 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>82</v>
@@ -14083,7 +14055,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14104,10 +14076,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14118,10 +14090,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14144,19 +14116,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14205,7 +14177,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14226,10 +14198,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14240,10 +14212,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14251,13 +14223,13 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>82</v>
@@ -14266,19 +14238,19 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14288,7 +14260,7 @@
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14327,7 +14299,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14348,10 +14320,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14362,10 +14334,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14388,19 +14360,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>286</v>
+        <v>394</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>288</v>
+        <v>396</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14449,7 +14421,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>289</v>
+        <v>391</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14461,22 +14433,22 @@
         <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>290</v>
+        <v>398</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14484,10 +14456,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14498,7 +14470,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14510,20 +14482,18 @@
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O101" t="s" s="2">
         <v>405</v>
       </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14571,13 +14541,13 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>104</v>
@@ -14586,19 +14556,19 @@
         <v>170</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="AO101" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14606,21 +14576,21 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14632,18 +14602,20 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="N102" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
@@ -14691,13 +14663,13 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>104</v>
@@ -14706,19 +14678,19 @@
         <v>170</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -14726,14 +14698,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14752,19 +14724,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14813,7 +14785,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14825,22 +14797,22 @@
         <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -14848,14 +14820,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14874,20 +14846,18 @@
         <v>93</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O104" t="s" s="2">
         <v>433</v>
       </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14935,7 +14905,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14950,19 +14920,19 @@
         <v>105</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AL104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM104" t="s" s="2">
+      <c r="AN104" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -14970,10 +14940,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14984,7 +14954,7 @@
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
@@ -14996,18 +14966,20 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O105" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="N105" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15055,22 +15027,22 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
@@ -15104,7 +15076,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -15125,10 +15097,10 @@
         <v>449</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>168</v>
+        <v>450</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15165,16 +15137,14 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>446</v>
@@ -15183,41 +15153,43 @@
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>104</v>
+        <v>453</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>82</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15238,19 +15210,19 @@
         <v>93</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15287,59 +15259,59 @@
         <v>82</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AC107" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AG107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AN107" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15357,23 +15329,19 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>469</v>
+        <v>215</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>457</v>
+        <v>216</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15421,7 +15389,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>455</v>
+        <v>218</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15430,7 +15398,7 @@
         <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>82</v>
@@ -15439,38 +15407,38 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>465</v>
+        <v>113</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
@@ -15482,15 +15450,17 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15527,31 +15497,31 @@
         <v>82</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
@@ -15563,7 +15533,7 @@
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15574,24 +15544,24 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>82</v>
@@ -15600,17 +15570,15 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>140</v>
+        <v>460</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>141</v>
+        <v>467</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15647,31 +15615,31 @@
         <v>82</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC110" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>222</v>
+        <v>468</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15683,7 +15651,7 @@
         <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15694,10 +15662,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15705,13 +15673,13 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>82</v>
@@ -15720,16 +15688,20 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>469</v>
+        <v>198</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15753,13 +15725,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15777,19 +15749,19 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI111" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AG111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AJ111" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -15798,10 +15770,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15812,21 +15784,21 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>82</v>
@@ -15841,16 +15813,16 @@
         <v>198</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -15875,13 +15847,13 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -15899,16 +15871,16 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>486</v>
+        <v>104</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>105</v>
@@ -15917,31 +15889,31 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>106</v>
+        <v>488</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>82</v>
+        <v>490</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15960,19 +15932,19 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>198</v>
+        <v>492</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -15997,13 +15969,13 @@
         <v>82</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>483</v>
+        <v>82</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>495</v>
+        <v>82</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16021,7 +15993,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16039,7 +16011,7 @@
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>497</v>
@@ -16051,15 +16023,15 @@
         <v>82</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>499</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16070,7 +16042,7 @@
         <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>82</v>
@@ -16082,20 +16054,18 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M114" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>505</v>
-      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16119,13 +16089,13 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>82</v>
+        <v>503</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16143,13 +16113,13 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>104</v>
@@ -16161,7 +16131,7 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>506</v>
@@ -16173,15 +16143,15 @@
         <v>82</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>82</v>
+        <v>508</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16207,15 +16177,17 @@
         <v>198</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16242,10 +16214,10 @@
         <v>368</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -16263,7 +16235,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16281,19 +16253,19 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>514</v>
+        <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" hidden="true">
@@ -16324,20 +16296,18 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>198</v>
+        <v>519</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O116" t="s" s="2">
         <v>522</v>
       </c>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16361,13 +16331,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>523</v>
+        <v>82</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>524</v>
+        <v>82</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16397,25 +16367,25 @@
         <v>104</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>82</v>
+        <v>523</v>
       </c>
       <c r="AM116" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AN116" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AN116" t="s" s="2">
+      <c r="AO116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP116" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="117" hidden="true">
@@ -16554,7 +16524,7 @@
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
@@ -16577,7 +16547,9 @@
       <c r="N118" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="O118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16631,31 +16603,31 @@
         <v>80</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>170</v>
+        <v>542</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" hidden="true">
@@ -16674,7 +16646,7 @@
         <v>80</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>82</v>
@@ -16686,20 +16658,16 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>546</v>
+        <v>215</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>547</v>
+        <v>216</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16747,19 +16715,19 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>545</v>
+        <v>218</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>551</v>
+        <v>82</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
@@ -16768,10 +16736,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>552</v>
+        <v>82</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>553</v>
+        <v>113</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16782,21 +16750,21 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>82</v>
@@ -16808,15 +16776,17 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N120" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -16853,31 +16823,31 @@
         <v>82</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
@@ -16889,7 +16859,7 @@
         <v>82</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -16900,14 +16870,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>139</v>
+        <v>548</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16920,24 +16890,26 @@
         <v>82</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>141</v>
+        <v>549</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>221</v>
+        <v>550</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O121" s="2"/>
+      <c r="O121" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
       </c>
@@ -16973,19 +16945,19 @@
         <v>82</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC121" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>222</v>
+        <v>551</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17020,46 +16992,44 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>140</v>
+        <v>553</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>82</v>
       </c>
@@ -17107,31 +17077,31 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN122" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17168,16 +17138,16 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M123" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="N123" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17236,10 +17206,10 @@
         <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17248,10 +17218,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17262,10 +17232,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17288,18 +17258,20 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>562</v>
+        <v>198</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O124" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
       </c>
@@ -17323,13 +17295,13 @@
         <v>82</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>82</v>
+        <v>570</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>82</v>
@@ -17347,7 +17319,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17356,22 +17328,22 @@
         <v>92</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>566</v>
+        <v>104</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>567</v>
+        <v>105</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>82</v>
+        <v>572</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>573</v>
+        <v>489</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17396,7 +17368,7 @@
         <v>80</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>82</v>
@@ -17445,7 +17417,7 @@
         <v>82</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>119</v>
+        <v>368</v>
       </c>
       <c r="Y125" t="s" s="2">
         <v>579</v>
@@ -17475,7 +17447,7 @@
         <v>80</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>104</v>
@@ -17487,13 +17459,13 @@
         <v>82</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17504,10 +17476,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17518,7 +17490,7 @@
         <v>80</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>82</v>
@@ -17530,19 +17502,19 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>198</v>
+        <v>582</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="N126" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17567,13 +17539,13 @@
         <v>82</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>588</v>
+        <v>82</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>589</v>
+        <v>82</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
@@ -17591,31 +17563,31 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>105</v>
+        <v>587</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>498</v>
+        <v>589</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17652,20 +17624,18 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M127" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="N127" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>82</v>
       </c>
@@ -17725,7 +17695,7 @@
         <v>104</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>596</v>
+        <v>105</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -17734,10 +17704,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>597</v>
+        <v>559</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17748,10 +17718,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17762,7 +17732,7 @@
         <v>80</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>82</v>
@@ -17771,19 +17741,19 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>215</v>
+        <v>595</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>259</v>
+        <v>598</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17833,19 +17803,19 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>82</v>
@@ -17854,10 +17824,10 @@
         <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -17868,10 +17838,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17894,16 +17864,16 @@
         <v>93</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -17953,7 +17923,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17974,10 +17944,10 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -17988,10 +17958,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18014,18 +17984,20 @@
         <v>93</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="O130" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="L130" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>82</v>
       </c>
@@ -18073,7 +18045,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18085,7 +18057,7 @@
         <v>104</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
@@ -18094,10 +18066,10 @@
         <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18108,10 +18080,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18122,7 +18094,7 @@
         <v>80</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>82</v>
@@ -18131,23 +18103,19 @@
         <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>546</v>
+        <v>215</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>617</v>
+        <v>216</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>82</v>
       </c>
@@ -18195,19 +18163,19 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>616</v>
+        <v>218</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>82</v>
@@ -18216,10 +18184,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>621</v>
+        <v>82</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>622</v>
+        <v>113</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18230,21 +18198,21 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>82</v>
@@ -18256,15 +18224,17 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N132" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18301,31 +18271,31 @@
         <v>82</v>
       </c>
       <c r="AB132" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC132" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
@@ -18337,7 +18307,7 @@
         <v>82</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18348,14 +18318,14 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>139</v>
+        <v>548</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -18368,24 +18338,26 @@
         <v>82</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>141</v>
+        <v>549</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>221</v>
+        <v>550</v>
       </c>
       <c r="N133" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O133" s="2"/>
+      <c r="O133" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
       </c>
@@ -18421,19 +18393,19 @@
         <v>82</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC133" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>222</v>
+        <v>551</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18468,45 +18440,45 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>559</v>
+        <v>619</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>143</v>
+        <v>620</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>152</v>
+        <v>367</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18531,13 +18503,13 @@
         <v>82</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
@@ -18555,34 +18527,34 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>82</v>
+        <v>621</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>106</v>
+        <v>374</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -18590,10 +18562,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18601,7 +18573,7 @@
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>92</v>
@@ -18616,19 +18588,19 @@
         <v>93</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>198</v>
+        <v>447</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>628</v>
+        <v>449</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>367</v>
+        <v>451</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18653,13 +18625,13 @@
         <v>82</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>82</v>
@@ -18677,10 +18649,10 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>92</v>
@@ -18695,27 +18667,27 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>82</v>
+        <v>457</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18735,22 +18707,22 @@
         <v>82</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>456</v>
+        <v>198</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>458</v>
+        <v>628</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -18775,13 +18747,13 @@
         <v>82</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>82</v>
@@ -18799,7 +18771,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18808,7 +18780,7 @@
         <v>92</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>104</v>
+        <v>477</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>105</v>
@@ -18817,38 +18789,38 @@
         <v>82</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>634</v>
+        <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>464</v>
+        <v>106</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP136" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>82</v>
@@ -18863,16 +18835,16 @@
         <v>198</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>636</v>
+        <v>481</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>637</v>
+        <v>482</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>638</v>
+        <v>483</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -18897,13 +18869,13 @@
         <v>82</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>82</v>
@@ -18921,16 +18893,16 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>486</v>
+        <v>104</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>105</v>
@@ -18939,31 +18911,31 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>106</v>
+        <v>488</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP137" t="s" s="2">
-        <v>82</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -18982,19 +18954,19 @@
         <v>82</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>490</v>
+        <v>632</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>491</v>
+        <v>633</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19019,13 +18991,13 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>483</v>
+        <v>82</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>495</v>
+        <v>82</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19043,7 +19015,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19052,154 +19024,32 @@
         <v>81</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>498</v>
+        <v>544</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP138" t="s" s="2">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q139" s="2"/>
-      <c r="R139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AO139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP139" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP139">
+  <autoFilter ref="A1:AP138">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19209,7 +19059,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI138">
+  <conditionalFormatting sqref="A2:AI137">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5347" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5347" uniqueCount="633">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2341,7 +2338,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4131,10 +4128,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4158,13 +4155,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4172,13 +4169,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4282,13 +4279,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4296,10 +4293,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4322,13 +4319,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4379,7 +4376,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4414,10 +4411,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4446,7 +4443,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4499,7 +4496,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4534,10 +4531,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4560,19 +4557,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4621,7 +4618,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4642,10 +4639,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4656,10 +4653,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4682,13 +4679,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4739,7 +4736,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4774,10 +4771,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4806,7 +4803,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4859,7 +4856,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4894,10 +4891,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4923,65 +4920,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5002,10 +4999,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5016,10 +5013,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5042,16 +5039,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5101,7 +5098,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5122,10 +5119,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5136,10 +5133,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5165,65 +5162,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5244,10 +5241,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5258,10 +5255,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5284,19 +5281,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5345,7 +5342,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5366,10 +5363,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5380,10 +5377,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5406,19 +5403,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5467,7 +5464,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5488,10 +5485,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5502,10 +5499,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5528,19 +5525,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5589,7 +5586,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5610,10 +5607,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5624,13 +5621,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5734,13 +5731,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5748,10 +5745,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5774,13 +5771,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5831,7 +5828,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5866,10 +5863,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5898,7 +5895,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -5951,7 +5948,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5986,10 +5983,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6012,19 +6009,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6073,7 +6070,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6094,10 +6091,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6108,10 +6105,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6134,13 +6131,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6191,7 +6188,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6226,10 +6223,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6258,7 +6255,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6311,7 +6308,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6346,10 +6343,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6375,23 +6372,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6433,7 +6430,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6454,10 +6451,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6468,10 +6465,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6494,16 +6491,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6553,7 +6550,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6574,10 +6571,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6588,10 +6585,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6617,23 +6614,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6675,7 +6672,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6696,10 +6693,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6710,10 +6707,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6736,19 +6733,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6797,7 +6794,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6818,10 +6815,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6832,10 +6829,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6858,19 +6855,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6919,7 +6916,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6940,10 +6937,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6954,10 +6951,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6980,19 +6977,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7041,7 +7038,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7062,10 +7059,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7076,13 +7073,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7186,13 +7183,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7200,10 +7197,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7226,13 +7223,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7283,7 +7280,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7318,10 +7315,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7350,7 +7347,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7403,7 +7400,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7438,10 +7435,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7464,19 +7461,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7525,7 +7522,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7546,10 +7543,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7560,10 +7557,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7586,13 +7583,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7643,7 +7640,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7678,10 +7675,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7710,7 +7707,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7763,7 +7760,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7798,10 +7795,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7827,23 +7824,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7885,7 +7882,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7906,10 +7903,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7920,10 +7917,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7946,16 +7943,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8005,7 +8002,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8026,10 +8023,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8040,10 +8037,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8069,23 +8066,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8127,7 +8124,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8148,10 +8145,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8162,10 +8159,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8188,19 +8185,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8249,7 +8246,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8270,10 +8267,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8284,10 +8281,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8310,19 +8307,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8371,7 +8368,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8392,10 +8389,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8406,10 +8403,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8432,19 +8429,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8493,7 +8490,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8514,10 +8511,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8528,13 +8525,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8638,13 +8635,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8652,10 +8649,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8678,13 +8675,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8735,7 +8732,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8770,10 +8767,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8802,7 +8799,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8855,7 +8852,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8890,10 +8887,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8916,19 +8913,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8977,7 +8974,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8998,10 +8995,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9012,10 +9009,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9038,13 +9035,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9095,7 +9092,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9130,10 +9127,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9162,7 +9159,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9215,7 +9212,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9250,10 +9247,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9279,23 +9276,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9337,7 +9334,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9358,10 +9355,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9372,10 +9369,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9398,16 +9395,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9457,7 +9454,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9478,10 +9475,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9492,10 +9489,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9521,23 +9518,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9579,7 +9576,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9600,10 +9597,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9614,10 +9611,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9640,19 +9637,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9701,7 +9698,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9722,10 +9719,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9736,10 +9733,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9762,19 +9759,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9823,7 +9820,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9844,10 +9841,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9858,10 +9855,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9884,19 +9881,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9945,7 +9942,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9966,10 +9963,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9980,7 +9977,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
@@ -10090,13 +10087,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10104,10 +10101,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10130,13 +10127,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10187,7 +10184,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10222,10 +10219,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10254,7 +10251,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10307,7 +10304,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10342,10 +10339,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10368,19 +10365,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10429,7 +10426,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10450,10 +10447,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10464,10 +10461,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10490,13 +10487,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10547,7 +10544,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10582,10 +10579,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10614,7 +10611,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10667,7 +10664,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10702,10 +10699,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10731,23 +10728,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10789,7 +10786,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10810,10 +10807,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10824,10 +10821,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10850,16 +10847,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10909,7 +10906,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10930,10 +10927,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10944,10 +10941,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10973,23 +10970,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11031,7 +11028,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11052,10 +11049,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11066,10 +11063,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11092,19 +11089,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11153,7 +11150,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11174,10 +11171,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11188,10 +11185,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11214,19 +11211,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11275,7 +11272,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11296,10 +11293,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11310,10 +11307,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11336,19 +11333,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11397,7 +11394,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11418,10 +11415,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11432,13 +11429,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>82</v>
@@ -11542,13 +11539,13 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11556,10 +11553,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11582,13 +11579,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11639,7 +11636,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11674,10 +11671,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11706,7 +11703,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -11759,7 +11756,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11794,10 +11791,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11820,19 +11817,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11881,7 +11878,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11902,10 +11899,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11916,10 +11913,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11942,13 +11939,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11999,7 +11996,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12034,10 +12031,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12066,7 +12063,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12119,7 +12116,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12154,10 +12151,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12183,23 +12180,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12241,7 +12238,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12262,10 +12259,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12276,10 +12273,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12302,16 +12299,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12361,7 +12358,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12382,10 +12379,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12396,10 +12393,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12425,23 +12422,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12483,7 +12480,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12504,10 +12501,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12518,10 +12515,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12544,19 +12541,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12605,7 +12602,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12626,10 +12623,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12640,10 +12637,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12666,19 +12663,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12727,7 +12724,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12748,10 +12745,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12762,10 +12759,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12788,19 +12785,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12849,7 +12846,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12870,10 +12867,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12884,14 +12881,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12913,16 +12910,16 @@
         <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12947,14 +12944,14 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Y88" t="s" s="2">
+      <c r="Z88" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
       </c>
@@ -12971,7 +12968,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>92</v>
@@ -12986,30 +12983,30 @@
         <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AO88" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AO88" t="s" s="2">
+      <c r="AP88" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13032,13 +13029,13 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13089,7 +13086,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13124,10 +13121,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13156,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>143</v>
@@ -13209,7 +13206,7 @@
         <v>146</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13244,10 +13241,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13270,19 +13267,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13331,7 +13328,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13352,10 +13349,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13366,10 +13363,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13392,13 +13389,13 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13449,7 +13446,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13484,10 +13481,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13516,7 +13513,7 @@
         <v>141</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>143</v>
@@ -13569,7 +13566,7 @@
         <v>146</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13604,10 +13601,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13633,23 +13630,23 @@
         <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13691,7 +13688,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13712,10 +13709,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13726,10 +13723,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13752,16 +13749,16 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13811,7 +13808,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13832,10 +13829,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13846,10 +13843,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13875,23 +13872,23 @@
         <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -13933,7 +13930,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13954,10 +13951,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13968,10 +13965,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13994,19 +13991,19 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O97" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14055,7 +14052,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14076,10 +14073,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14090,10 +14087,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14116,19 +14113,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14177,7 +14174,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14198,10 +14195,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14212,10 +14209,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14238,19 +14235,19 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14260,7 +14257,7 @@
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14299,7 +14296,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14320,10 +14317,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14334,10 +14331,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14360,19 +14357,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14421,7 +14418,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14436,19 +14433,19 @@
         <v>170</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AN100" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AO100" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14456,10 +14453,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14482,16 +14479,16 @@
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14541,7 +14538,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14562,13 +14559,13 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14576,14 +14573,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14602,19 +14599,19 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14663,7 +14660,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14678,19 +14675,19 @@
         <v>170</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN102" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AO102" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -14698,14 +14695,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14724,19 +14721,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14785,7 +14782,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14800,19 +14797,19 @@
         <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AL103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AN103" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AN103" t="s" s="2">
+      <c r="AO103" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -14820,10 +14817,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14846,16 +14843,16 @@
         <v>93</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14905,7 +14902,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14926,13 +14923,13 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -14940,10 +14937,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14966,19 +14963,19 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15027,7 +15024,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15042,19 +15039,19 @@
         <v>170</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AL105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM105" t="s" s="2">
+      <c r="AN105" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AN105" t="s" s="2">
+      <c r="AO105" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15062,10 +15059,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15088,19 +15085,19 @@
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15137,7 +15134,7 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
@@ -15147,7 +15144,7 @@
         <v>146</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15156,7 +15153,7 @@
         <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>105</v>
@@ -15165,30 +15162,30 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AN106" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AN106" t="s" s="2">
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP106" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C107" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15210,19 +15207,19 @@
         <v>93</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15271,7 +15268,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15280,36 +15277,36 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AJ107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL107" t="s" s="2">
+      <c r="AM107" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AM107" t="s" s="2">
+      <c r="AN107" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AN107" t="s" s="2">
+      <c r="AO107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP107" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15332,13 +15329,13 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15389,7 +15386,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15424,10 +15421,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B109" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15456,7 +15453,7 @@
         <v>141</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>143</v>
@@ -15509,7 +15506,7 @@
         <v>146</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15544,10 +15541,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B110" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15570,13 +15567,13 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15627,7 +15624,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15662,10 +15659,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15691,16 +15688,16 @@
         <v>198</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15725,40 +15722,40 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y111" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="Y111" t="s" s="2">
+      <c r="Z111" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="Z111" t="s" s="2">
+      <c r="AA111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI111" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>105</v>
@@ -15773,7 +15770,7 @@
         <v>106</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15784,14 +15781,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15813,16 +15810,16 @@
         <v>198</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="N112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -15847,14 +15844,14 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y112" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z112" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="Z112" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
       </c>
@@ -15871,7 +15868,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15889,27 +15886,27 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AM112" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AM112" t="s" s="2">
+      <c r="AN112" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AN112" t="s" s="2">
+      <c r="AO112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP112" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP112" t="s" s="2">
-        <v>490</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15932,19 +15929,19 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -15993,7 +15990,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16014,10 +16011,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16028,10 +16025,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16057,13 +16054,13 @@
         <v>198</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16089,14 +16086,14 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y114" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="Z114" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="Z114" t="s" s="2">
-        <v>504</v>
-      </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16113,7 +16110,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16131,27 +16128,27 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AM114" t="s" s="2">
+      <c r="AN114" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AN114" t="s" s="2">
+      <c r="AO114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP114" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP114" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16177,16 +16174,16 @@
         <v>198</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16211,14 +16208,14 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y115" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Z115" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="Z115" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16235,7 +16232,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16256,10 +16253,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16270,10 +16267,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16296,16 +16293,16 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16355,7 +16352,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16373,27 +16370,27 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AM116" t="s" s="2">
+      <c r="AN116" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AN116" t="s" s="2">
+      <c r="AO116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP116" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>526</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16416,16 +16413,16 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16475,7 +16472,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16493,27 +16490,27 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM117" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AM117" t="s" s="2">
+      <c r="AN117" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AN117" t="s" s="2">
+      <c r="AO117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP117" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>535</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16536,19 +16533,19 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N118" t="s" s="2">
+      <c r="O118" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16597,7 +16594,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16609,19 +16606,19 @@
         <v>104</v>
       </c>
       <c r="AJ118" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AK118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM118" t="s" s="2">
+      <c r="AN118" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16632,10 +16629,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16658,13 +16655,13 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16715,7 +16712,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16750,10 +16747,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16782,7 +16779,7 @@
         <v>141</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>143</v>
@@ -16835,7 +16832,7 @@
         <v>146</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16870,14 +16867,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16899,10 +16896,10 @@
         <v>140</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>143</v>
@@ -16957,7 +16954,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16992,10 +16989,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17018,16 +17015,16 @@
         <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="M122" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -17077,7 +17074,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17086,22 +17083,22 @@
         <v>92</v>
       </c>
       <c r="AI122" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AJ122" t="s" s="2">
+      <c r="AK122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="AK122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM122" t="s" s="2">
+      <c r="AN122" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17112,10 +17109,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17138,16 +17135,16 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M123" t="s" s="2">
-        <v>563</v>
-      </c>
       <c r="N123" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17197,7 +17194,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17206,22 +17203,22 @@
         <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AJ123" t="s" s="2">
+      <c r="AK123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM123" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="AK123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>559</v>
-      </c>
       <c r="AN123" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17232,10 +17229,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17261,16 +17258,16 @@
         <v>198</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="N124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -17298,11 +17295,11 @@
         <v>119</v>
       </c>
       <c r="Y124" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="Z124" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="Z124" t="s" s="2">
-        <v>571</v>
-      </c>
       <c r="AA124" t="s" s="2">
         <v>82</v>
       </c>
@@ -17319,7 +17316,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17337,13 +17334,13 @@
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM124" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AM124" t="s" s="2">
-        <v>573</v>
-      </c>
       <c r="AN124" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17354,10 +17351,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17383,16 +17380,16 @@
         <v>198</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="N125" t="s" s="2">
+      <c r="O125" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
@@ -17417,14 +17414,14 @@
         <v>82</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y125" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="Z125" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="Z125" t="s" s="2">
-        <v>580</v>
-      </c>
       <c r="AA125" t="s" s="2">
         <v>82</v>
       </c>
@@ -17441,7 +17438,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17459,13 +17456,13 @@
         <v>82</v>
       </c>
       <c r="AL125" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM125" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AM125" t="s" s="2">
-        <v>573</v>
-      </c>
       <c r="AN125" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17476,10 +17473,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17502,19 +17499,19 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="N126" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17563,7 +17560,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17575,19 +17572,19 @@
         <v>104</v>
       </c>
       <c r="AJ126" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM126" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="AK126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM126" t="s" s="2">
+      <c r="AN126" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17598,10 +17595,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17624,16 +17621,16 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M127" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="N127" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -17683,7 +17680,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17704,10 +17701,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17718,10 +17715,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17744,16 +17741,16 @@
         <v>93</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="M128" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17803,7 +17800,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17824,10 +17821,10 @@
         <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AN128" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -17838,10 +17835,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17864,16 +17861,16 @@
         <v>93</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -17923,7 +17920,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17944,10 +17941,10 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -17958,10 +17955,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17984,19 +17981,19 @@
         <v>93</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18045,7 +18042,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18066,10 +18063,10 @@
         <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AN130" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18080,10 +18077,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18106,13 +18103,13 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18163,7 +18160,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18198,10 +18195,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18230,7 +18227,7 @@
         <v>141</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>143</v>
@@ -18283,7 +18280,7 @@
         <v>146</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18318,14 +18315,14 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -18347,10 +18344,10 @@
         <v>140</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="N133" t="s" s="2">
         <v>143</v>
@@ -18405,7 +18402,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18440,10 +18437,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18469,16 +18466,16 @@
         <v>198</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="N134" t="s" s="2">
-        <v>620</v>
-      </c>
       <c r="O134" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18503,14 +18500,14 @@
         <v>82</v>
       </c>
       <c r="X134" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y134" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Y134" t="s" s="2">
+      <c r="Z134" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z134" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18527,7 +18524,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>92</v>
@@ -18545,16 +18542,16 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AM134" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN134" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AN134" t="s" s="2">
+      <c r="AO134" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -18562,10 +18559,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18588,19 +18585,19 @@
         <v>93</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="M135" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>624</v>
-      </c>
       <c r="O135" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18649,7 +18646,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18667,27 +18664,27 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AM135" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN135" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AN135" t="s" s="2">
+      <c r="AO135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP135" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP135" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18713,16 +18710,16 @@
         <v>198</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="N136" t="s" s="2">
-        <v>629</v>
-      </c>
       <c r="O136" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -18747,40 +18744,40 @@
         <v>82</v>
       </c>
       <c r="X136" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y136" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="Y136" t="s" s="2">
+      <c r="Z136" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="Z136" t="s" s="2">
+      <c r="AA136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI136" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>105</v>
@@ -18795,7 +18792,7 @@
         <v>106</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -18806,14 +18803,14 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -18835,16 +18832,16 @@
         <v>198</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="N137" t="s" s="2">
+      <c r="O137" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -18869,14 +18866,14 @@
         <v>82</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y137" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z137" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="Z137" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="AA137" t="s" s="2">
         <v>82</v>
       </c>
@@ -18893,7 +18890,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18911,27 +18908,27 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AM137" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AM137" t="s" s="2">
+      <c r="AN137" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AN137" t="s" s="2">
+      <c r="AO137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP137" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP137" t="s" s="2">
-        <v>490</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18957,16 +18954,16 @@
         <v>83</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="M138" t="s" s="2">
-        <v>633</v>
-      </c>
       <c r="N138" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O138" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19015,7 +19012,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19036,10 +19033,10 @@
         <v>82</v>
       </c>
       <c r="AM138" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AN138" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5347" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5347" uniqueCount="634">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -4128,10 +4131,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4155,13 +4158,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4169,13 +4172,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4279,13 +4282,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4293,10 +4296,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4319,13 +4322,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4376,7 +4379,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4411,10 +4414,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4443,7 +4446,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4496,7 +4499,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4531,10 +4534,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4542,13 +4545,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4557,19 +4560,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4618,7 +4621,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4639,10 +4642,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4653,10 +4656,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4679,13 +4682,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4736,7 +4739,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4771,10 +4774,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4803,7 +4806,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4856,7 +4859,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4891,10 +4894,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4902,13 +4905,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4920,23 +4923,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -4978,7 +4981,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4999,10 +5002,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5013,10 +5016,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5039,16 +5042,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5098,7 +5101,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5119,10 +5122,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5133,10 +5136,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5144,13 +5147,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5162,23 +5165,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5220,7 +5223,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5241,10 +5244,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5255,10 +5258,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5281,19 +5284,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5342,7 +5345,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5363,10 +5366,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5377,10 +5380,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5403,19 +5406,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5464,7 +5467,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5485,10 +5488,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5499,10 +5502,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5525,19 +5528,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5586,7 +5589,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5607,10 +5610,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5621,13 +5624,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5731,13 +5734,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5745,10 +5748,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5771,13 +5774,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5828,7 +5831,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5863,10 +5866,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5895,7 +5898,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -5948,7 +5951,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5983,10 +5986,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5994,13 +5997,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6009,19 +6012,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6070,7 +6073,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6091,10 +6094,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6105,10 +6108,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6131,13 +6134,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6188,7 +6191,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6223,10 +6226,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6255,7 +6258,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6308,7 +6311,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6343,10 +6346,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6354,13 +6357,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6372,23 +6375,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6430,7 +6433,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6451,10 +6454,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6465,10 +6468,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6491,16 +6494,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6550,7 +6553,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6571,10 +6574,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6585,10 +6588,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6596,13 +6599,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -6614,23 +6617,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6672,7 +6675,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6693,10 +6696,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6707,10 +6710,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6733,19 +6736,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6794,7 +6797,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6815,10 +6818,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6829,10 +6832,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6855,19 +6858,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6916,7 +6919,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6937,10 +6940,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6951,10 +6954,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6977,19 +6980,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7038,7 +7041,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7059,10 +7062,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7073,13 +7076,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7183,13 +7186,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7197,10 +7200,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7223,13 +7226,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7280,7 +7283,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7315,10 +7318,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7347,7 +7350,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7400,7 +7403,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7435,10 +7438,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7446,13 +7449,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7461,19 +7464,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7522,7 +7525,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7543,10 +7546,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7557,10 +7560,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7583,13 +7586,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7640,7 +7643,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7675,10 +7678,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7707,7 +7710,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7760,7 +7763,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7795,10 +7798,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7806,13 +7809,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7824,23 +7827,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7882,7 +7885,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7903,10 +7906,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7917,10 +7920,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7943,16 +7946,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8002,7 +8005,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8023,10 +8026,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8037,10 +8040,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8048,13 +8051,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8066,23 +8069,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8124,7 +8127,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8145,10 +8148,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8159,10 +8162,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8185,19 +8188,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8246,7 +8249,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8267,10 +8270,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8281,10 +8284,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8307,19 +8310,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8368,7 +8371,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8389,10 +8392,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8403,10 +8406,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8429,19 +8432,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8490,7 +8493,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8511,10 +8514,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8525,13 +8528,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8635,13 +8638,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8649,10 +8652,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8675,13 +8678,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8732,7 +8735,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8767,10 +8770,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8799,7 +8802,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8852,7 +8855,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8887,10 +8890,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8898,13 +8901,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -8913,19 +8916,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8974,7 +8977,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8995,10 +8998,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9009,10 +9012,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9035,13 +9038,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9092,7 +9095,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9127,10 +9130,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9159,7 +9162,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9212,7 +9215,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9247,10 +9250,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9258,13 +9261,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9276,23 +9279,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9334,7 +9337,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9355,10 +9358,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9369,10 +9372,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9395,16 +9398,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9454,7 +9457,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9475,10 +9478,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9489,10 +9492,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9500,13 +9503,13 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -9518,23 +9521,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9576,7 +9579,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9597,10 +9600,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9611,10 +9614,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9637,19 +9640,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9698,7 +9701,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9719,10 +9722,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9733,10 +9736,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9759,19 +9762,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9820,7 +9823,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9841,10 +9844,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9855,10 +9858,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9881,19 +9884,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9942,7 +9945,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9963,10 +9966,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9977,7 +9980,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
@@ -10087,13 +10090,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10101,10 +10104,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10127,13 +10130,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10184,7 +10187,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10219,10 +10222,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10251,7 +10254,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10304,7 +10307,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10339,10 +10342,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10350,13 +10353,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10365,19 +10368,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10426,7 +10429,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10447,10 +10450,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10461,10 +10464,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10487,13 +10490,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10544,7 +10547,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10579,10 +10582,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10611,7 +10614,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10664,7 +10667,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10699,10 +10702,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10710,13 +10713,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10728,23 +10731,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10786,7 +10789,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10807,10 +10810,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10821,10 +10824,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10847,16 +10850,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10906,7 +10909,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10927,10 +10930,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10941,10 +10944,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10952,13 +10955,13 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
@@ -10970,23 +10973,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11028,7 +11031,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11049,10 +11052,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11063,10 +11066,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11089,19 +11092,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11150,7 +11153,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11171,10 +11174,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11185,10 +11188,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11211,19 +11214,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11272,7 +11275,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11293,10 +11296,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11307,10 +11310,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11333,19 +11336,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11394,7 +11397,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11415,10 +11418,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11429,13 +11432,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>82</v>
@@ -11539,13 +11542,13 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11553,10 +11556,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11579,13 +11582,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11636,7 +11639,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11671,10 +11674,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11703,7 +11706,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -11756,7 +11759,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11791,10 +11794,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11802,13 +11805,13 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -11817,19 +11820,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11878,7 +11881,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11899,10 +11902,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11913,10 +11916,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11939,13 +11942,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11996,7 +11999,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12031,10 +12034,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12063,7 +12066,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12116,7 +12119,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12151,10 +12154,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12162,13 +12165,13 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12180,23 +12183,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12238,7 +12241,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12259,10 +12262,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12273,10 +12276,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12299,16 +12302,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12358,7 +12361,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12379,10 +12382,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12393,10 +12396,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12404,13 +12407,13 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
@@ -12422,23 +12425,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12480,7 +12483,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12501,10 +12504,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12515,10 +12518,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12541,19 +12544,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12602,7 +12605,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12623,10 +12626,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12637,10 +12640,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12663,19 +12666,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12724,7 +12727,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12745,10 +12748,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12759,10 +12762,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12785,19 +12788,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12846,7 +12849,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12867,10 +12870,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12881,14 +12884,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12910,16 +12913,16 @@
         <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12944,13 +12947,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -12968,7 +12971,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>92</v>
@@ -12983,30 +12986,30 @@
         <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13029,13 +13032,13 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13086,7 +13089,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13121,10 +13124,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13153,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>143</v>
@@ -13206,7 +13209,7 @@
         <v>146</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13241,10 +13244,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13267,19 +13270,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13328,7 +13331,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13349,10 +13352,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13363,10 +13366,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13389,13 +13392,13 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13446,7 +13449,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13481,10 +13484,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13513,7 +13516,7 @@
         <v>141</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>143</v>
@@ -13566,7 +13569,7 @@
         <v>146</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13601,10 +13604,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13630,23 +13633,23 @@
         <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13688,7 +13691,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13709,10 +13712,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13723,10 +13726,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13749,16 +13752,16 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13808,7 +13811,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13829,10 +13832,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13843,10 +13846,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13872,23 +13875,23 @@
         <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -13930,7 +13933,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13951,10 +13954,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13965,10 +13968,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13991,19 +13994,19 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14052,7 +14055,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14073,10 +14076,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14087,10 +14090,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14113,19 +14116,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14174,7 +14177,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14195,10 +14198,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14209,10 +14212,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14235,19 +14238,19 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14257,7 +14260,7 @@
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14296,7 +14299,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14317,10 +14320,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14331,10 +14334,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14357,19 +14360,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14418,7 +14421,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14433,19 +14436,19 @@
         <v>170</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14453,10 +14456,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14479,16 +14482,16 @@
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14538,7 +14541,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14559,13 +14562,13 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14573,14 +14576,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14599,19 +14602,19 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14660,7 +14663,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14675,19 +14678,19 @@
         <v>170</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -14695,14 +14698,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14721,19 +14724,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14782,7 +14785,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14797,19 +14800,19 @@
         <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -14817,10 +14820,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14843,16 +14846,16 @@
         <v>93</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14902,7 +14905,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14923,13 +14926,13 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -14937,10 +14940,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14963,19 +14966,19 @@
         <v>93</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15024,7 +15027,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15039,19 +15042,19 @@
         <v>170</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15059,10 +15062,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15085,19 +15088,19 @@
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15134,7 +15137,7 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
@@ -15144,7 +15147,7 @@
         <v>146</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15153,7 +15156,7 @@
         <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>105</v>
@@ -15162,30 +15165,30 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15207,19 +15210,19 @@
         <v>93</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15268,7 +15271,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15277,7 +15280,7 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>82</v>
@@ -15286,27 +15289,27 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15329,13 +15332,13 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15386,7 +15389,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15421,10 +15424,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15453,7 +15456,7 @@
         <v>141</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>143</v>
@@ -15506,7 +15509,7 @@
         <v>146</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15541,10 +15544,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15567,13 +15570,13 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15624,7 +15627,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15659,10 +15662,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15688,16 +15691,16 @@
         <v>198</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15722,13 +15725,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15746,7 +15749,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15755,7 +15758,7 @@
         <v>92</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>105</v>
@@ -15770,7 +15773,7 @@
         <v>106</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15781,14 +15784,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15810,16 +15813,16 @@
         <v>198</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -15844,13 +15847,13 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -15868,7 +15871,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15886,27 +15889,27 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15929,19 +15932,19 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -15990,7 +15993,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16011,10 +16014,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16025,10 +16028,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16054,13 +16057,13 @@
         <v>198</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16086,13 +16089,13 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16110,7 +16113,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16128,27 +16131,27 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16174,16 +16177,16 @@
         <v>198</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16208,13 +16211,13 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -16232,7 +16235,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16253,10 +16256,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16267,10 +16270,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16293,16 +16296,16 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16352,7 +16355,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16370,27 +16373,27 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16413,16 +16416,16 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16472,7 +16475,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16490,27 +16493,27 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16533,19 +16536,19 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16594,7 +16597,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16606,7 +16609,7 @@
         <v>104</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
@@ -16615,10 +16618,10 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16629,10 +16632,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16655,13 +16658,13 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16712,7 +16715,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16747,10 +16750,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16779,7 +16782,7 @@
         <v>141</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>143</v>
@@ -16832,7 +16835,7 @@
         <v>146</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16867,14 +16870,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16896,10 +16899,10 @@
         <v>140</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>143</v>
@@ -16954,7 +16957,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16989,10 +16992,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17015,16 +17018,16 @@
         <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -17074,7 +17077,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17083,10 +17086,10 @@
         <v>92</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
@@ -17095,10 +17098,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17109,10 +17112,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17135,16 +17138,16 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17194,7 +17197,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17203,10 +17206,10 @@
         <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17215,10 +17218,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17229,10 +17232,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17258,16 +17261,16 @@
         <v>198</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -17295,10 +17298,10 @@
         <v>119</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>82</v>
@@ -17316,7 +17319,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17334,13 +17337,13 @@
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17351,10 +17354,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17380,16 +17383,16 @@
         <v>198</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
@@ -17414,13 +17417,13 @@
         <v>82</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>82</v>
@@ -17438,7 +17441,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17456,13 +17459,13 @@
         <v>82</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17473,10 +17476,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17499,19 +17502,19 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17560,7 +17563,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17572,7 +17575,7 @@
         <v>104</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
@@ -17581,10 +17584,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17595,10 +17598,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17621,16 +17624,16 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -17680,7 +17683,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17701,10 +17704,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17715,10 +17718,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17741,16 +17744,16 @@
         <v>93</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17800,7 +17803,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17821,10 +17824,10 @@
         <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -17835,10 +17838,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17861,16 +17864,16 @@
         <v>93</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -17920,7 +17923,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17941,10 +17944,10 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -17955,10 +17958,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17981,19 +17984,19 @@
         <v>93</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18042,7 +18045,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18063,10 +18066,10 @@
         <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18077,10 +18080,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18103,13 +18106,13 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18160,7 +18163,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18195,10 +18198,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18227,7 +18230,7 @@
         <v>141</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>143</v>
@@ -18280,7 +18283,7 @@
         <v>146</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18315,14 +18318,14 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -18344,10 +18347,10 @@
         <v>140</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N133" t="s" s="2">
         <v>143</v>
@@ -18402,7 +18405,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18437,10 +18440,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18466,16 +18469,16 @@
         <v>198</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18500,13 +18503,13 @@
         <v>82</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
@@ -18524,7 +18527,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>92</v>
@@ -18542,16 +18545,16 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -18559,10 +18562,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18585,19 +18588,19 @@
         <v>93</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18646,7 +18649,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18664,27 +18667,27 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18710,16 +18713,16 @@
         <v>198</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -18744,13 +18747,13 @@
         <v>82</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>82</v>
@@ -18768,7 +18771,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18777,7 +18780,7 @@
         <v>92</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>105</v>
@@ -18792,7 +18795,7 @@
         <v>106</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -18803,14 +18806,14 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -18832,16 +18835,16 @@
         <v>198</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -18866,13 +18869,13 @@
         <v>82</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>82</v>
@@ -18890,7 +18893,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18908,27 +18911,27 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP137" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18954,16 +18957,16 @@
         <v>83</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19012,7 +19015,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19033,10 +19036,10 @@
         <v>82</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-visit-date</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -676,13 +676,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>Observation.category:Laboratory.id</t>
+    <t>Observation.category:SocialHistory</t>
+  </si>
+  <si>
+    <t>SocialHistory</t>
+  </si>
+  <si>
+    <t>Observation.category:SocialHistory.id</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -701,7 +701,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.extension</t>
+    <t>Observation.category:SocialHistory.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -713,7 +713,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding</t>
+    <t>Observation.category:SocialHistory.coding</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -744,19 +744,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.id</t>
+    <t>Observation.category:SocialHistory.coding.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.extension</t>
+    <t>Observation.category:SocialHistory.coding.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.system</t>
+    <t>Observation.category:SocialHistory.coding.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -786,7 +786,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.version</t>
+    <t>Observation.category:SocialHistory.coding.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -810,7 +810,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.code</t>
+    <t>Observation.category:SocialHistory.coding.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -828,7 +828,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>laboratory</t>
+    <t>social-history</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -840,7 +840,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.display</t>
+    <t>Observation.category:SocialHistory.coding.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -864,7 +864,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.userSelected</t>
+    <t>Observation.category:SocialHistory.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -895,7 +895,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.text</t>
+    <t>Observation.category:SocialHistory.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4551,7 +4551,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4911,7 +4911,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5153,7 +5153,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -6003,7 +6003,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6363,7 +6363,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6605,7 +6605,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7455,7 +7455,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7815,7 +7815,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -8057,7 +8057,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8907,7 +8907,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9267,7 +9267,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9509,7 +9509,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10359,7 +10359,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10719,7 +10719,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10961,7 +10961,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
@@ -11811,7 +11811,7 @@
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -12171,7 +12171,7 @@
         <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12413,7 +12413,7 @@
         <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4131,7 +4131,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-visit-date</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-visit-date</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-visit-date</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-visit-date</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-visit-date</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-visit-date</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-visit-date</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-visit-date</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-visit-date</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-visit-date</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-visit-date</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-ncit-visit-date</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -771,7 +771,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -771,7 +771,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-visit-date.xlsx
+++ b/output/StructureDefinition-cde-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
